--- a/data/trans_dic/Q25_A_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/Q25_A_R3-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1550354783023316</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1237468892274978</v>
+        <v>0.1237468892274979</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.272557004466625</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1173815130934969</v>
+        <v>0.1176150814263082</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1262283140141423</v>
+        <v>0.1230645844016049</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.113837488872497</v>
+        <v>0.10987202781695</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08241004730965719</v>
+        <v>0.08159119596793529</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.157547682073913</v>
+        <v>0.1535557423518077</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2901517744263349</v>
+        <v>0.291293985906552</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1094135446131729</v>
+        <v>0.1079589075753225</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.107829227830749</v>
+        <v>0.1005295258031678</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1338146037996843</v>
+        <v>0.1305228918654171</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1626227748943012</v>
+        <v>0.1602956139791461</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1229468783822803</v>
+        <v>0.1251194017272702</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1011497908763441</v>
+        <v>0.09726284661995095</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.198370566509253</v>
+        <v>0.2027067165458823</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.204005737262465</v>
+        <v>0.2020502895569955</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2039796121409598</v>
+        <v>0.2057873086925715</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1771065237277566</v>
+        <v>0.1749678036757064</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4049899836986823</v>
+        <v>0.3985299063349508</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5207387582522937</v>
+        <v>0.5240102791739648</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3674235597672521</v>
+        <v>0.3659012719391718</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3601652801847304</v>
+        <v>0.3393583331463126</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.211547851116617</v>
+        <v>0.2120536086982196</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2356488332226164</v>
+        <v>0.238146991514109</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2142015317222326</v>
+        <v>0.2103549433298441</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1909011462871386</v>
+        <v>0.1899256135957177</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.285859268080889</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1595757960559634</v>
+        <v>0.1595757960559633</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.4323008506675883</v>
@@ -821,7 +821,7 @@
         <v>0.3565871381190365</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.3073571781372202</v>
+        <v>0.3073571781372203</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3617476724053419</v>
@@ -833,7 +833,7 @@
         <v>0.3137060594973939</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2185590396763744</v>
+        <v>0.2185590396763745</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2536184090118768</v>
+        <v>0.2562057513719784</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3203837091109252</v>
+        <v>0.3169036152615704</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2371546988064606</v>
+        <v>0.2410006407792675</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1190303413412717</v>
+        <v>0.1231935640557847</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3516718029314828</v>
+        <v>0.3553831441668878</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2981133563960957</v>
+        <v>0.3006305196716813</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2940853472449557</v>
+        <v>0.2929319679845716</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2460362439426187</v>
+        <v>0.2515765903254683</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3137479111325555</v>
+        <v>0.314282062529987</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3257050861671791</v>
+        <v>0.3224969603360238</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2749399495966912</v>
+        <v>0.2749469479967538</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1874133435094191</v>
+        <v>0.1888555407166436</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3760945351670474</v>
+        <v>0.3788876635545572</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.425056618418495</v>
+        <v>0.4291264433149445</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3398226790647155</v>
+        <v>0.3379417683245646</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2027987062659752</v>
+        <v>0.2064101139683976</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5098629540921704</v>
+        <v>0.5122669721664956</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4250200200023515</v>
+        <v>0.4222428850320742</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4252952425350613</v>
+        <v>0.4278194244947449</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3684611748121956</v>
+        <v>0.3660347316856565</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4098946046696471</v>
+        <v>0.4153256706184752</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4075973283182935</v>
+        <v>0.4018705214215845</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3523785254026352</v>
+        <v>0.3521689403303773</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2553443580315157</v>
+        <v>0.2555855283324534</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2160351971714843</v>
+        <v>0.216670983805933</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2269338714576578</v>
+        <v>0.2310203076494344</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1574350770838136</v>
+        <v>0.1563554482910185</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1200757041678576</v>
+        <v>0.1156893219710169</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2032091716585309</v>
+        <v>0.1997268730529892</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2446947094175104</v>
+        <v>0.2448851081261824</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1877445029491798</v>
+        <v>0.1848587133290069</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1397251077706555</v>
+        <v>0.1488805070088616</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2383445630536129</v>
+        <v>0.2439337758560194</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.26390873902407</v>
+        <v>0.2661880911839688</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1929205202464414</v>
+        <v>0.1924984667713259</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1475010195769064</v>
+        <v>0.1437042674909505</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4281935017337338</v>
+        <v>0.4299331168632156</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4326567033464509</v>
+        <v>0.4447613969386923</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.334154538191029</v>
+        <v>0.3356653845381794</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2642153802546061</v>
+        <v>0.2604821506845327</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.472871614234765</v>
+        <v>0.4589487738800324</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4764814990345134</v>
+        <v>0.4676289599686108</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3551663950339201</v>
+        <v>0.3578953940565023</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2954911106919285</v>
+        <v>0.2927615887712305</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4070810558473918</v>
+        <v>0.4067170550702159</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.416117642475287</v>
+        <v>0.4186406018938363</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3183435675155709</v>
+        <v>0.3215456265028613</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2553295089832234</v>
+        <v>0.2501707624859896</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.262414182759822</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.195877569362262</v>
+        <v>0.1958775693622619</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2031807691993537</v>
+        <v>0.203486756068087</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.233622780782563</v>
+        <v>0.2343413397403316</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2070460729162876</v>
+        <v>0.2047532702932841</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1275770244627719</v>
+        <v>0.1295618872743551</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3210724705095344</v>
+        <v>0.3119388067854633</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3150182362868461</v>
+        <v>0.3198234149856945</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2676794813604712</v>
+        <v>0.2686412236797124</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2270301357312564</v>
+        <v>0.2255168120891536</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2485066853999754</v>
+        <v>0.2451247979017531</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2718429117237569</v>
+        <v>0.272045604986772</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2349059477907085</v>
+        <v>0.2355073393789295</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1725831791856091</v>
+        <v>0.1726626335202833</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2751687751551213</v>
+        <v>0.2743395467585525</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2976004358509413</v>
+        <v>0.2984479517284522</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2716842250089432</v>
+        <v>0.2693157795595532</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1848967067023499</v>
+        <v>0.1881753295354254</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4430311212792322</v>
+        <v>0.4418790576799023</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.415923132293976</v>
+        <v>0.4206206050259827</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3664962513783757</v>
+        <v>0.3620691898687993</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3097027129142164</v>
+        <v>0.3113730229895936</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3114687061958223</v>
+        <v>0.3102532536489335</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3253630244229864</v>
+        <v>0.3261322665129968</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2886549304199703</v>
+        <v>0.2894327335561609</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2215895067999494</v>
+        <v>0.2205896266223388</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>34819</v>
+        <v>34888</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>48520</v>
+        <v>47304</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>26936</v>
+        <v>25998</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>14151</v>
+        <v>14010</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7965</v>
+        <v>7763</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>20331</v>
+        <v>20411</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5099</v>
+        <v>5031</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4834</v>
+        <v>4507</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>46459</v>
+        <v>45316</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>73904</v>
+        <v>72846</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>34821</v>
+        <v>35436</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>21903</v>
+        <v>21062</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>58842</v>
+        <v>60128</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>78416</v>
+        <v>77664</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>48265</v>
+        <v>48693</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>30411</v>
+        <v>30044</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>20475</v>
+        <v>20149</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>36488</v>
+        <v>36717</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>17122</v>
+        <v>17051</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>16147</v>
+        <v>15214</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>73446</v>
+        <v>73622</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>107091</v>
+        <v>108226</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>60666</v>
+        <v>59576</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>41338</v>
+        <v>41127</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>59179</v>
+        <v>59783</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>111569</v>
+        <v>110357</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>83857</v>
+        <v>85217</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>39259</v>
+        <v>40632</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>52056</v>
+        <v>52605</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>72490</v>
+        <v>73102</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>67529</v>
+        <v>67264</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>53902</v>
+        <v>55116</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>119652</v>
+        <v>119855</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>192621</v>
+        <v>190724</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>160350</v>
+        <v>160354</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>102873</v>
+        <v>103665</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>87757</v>
+        <v>88409</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>148020</v>
+        <v>149437</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>120160</v>
+        <v>119495</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>66888</v>
+        <v>68079</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>75472</v>
+        <v>75828</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>103348</v>
+        <v>102673</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>97658</v>
+        <v>98237</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>80724</v>
+        <v>80192</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>156318</v>
+        <v>158389</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>241052</v>
+        <v>237665</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>205514</v>
+        <v>205392</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>140161</v>
+        <v>140293</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>17926</v>
+        <v>17979</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>21610</v>
+        <v>21999</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>15956</v>
+        <v>15847</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>17847</v>
+        <v>17195</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>10139</v>
+        <v>9965</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>19058</v>
+        <v>19073</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>19593</v>
+        <v>19292</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>13255</v>
+        <v>14124</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>31669</v>
+        <v>32412</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>45686</v>
+        <v>46081</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>39686</v>
+        <v>39599</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>35916</v>
+        <v>34992</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>35531</v>
+        <v>35675</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>41201</v>
+        <v>42353</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>33867</v>
+        <v>34020</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>39271</v>
+        <v>38716</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>23593</v>
+        <v>22898</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>37111</v>
+        <v>36422</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>37066</v>
+        <v>37351</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>28032</v>
+        <v>27773</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>54090</v>
+        <v>54041</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>72035</v>
+        <v>72472</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>65487</v>
+        <v>66146</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>62172</v>
+        <v>60916</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>124538</v>
+        <v>124726</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>193403</v>
+        <v>193998</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>143185</v>
+        <v>141600</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>82947</v>
+        <v>84237</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>79778</v>
+        <v>77509</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>123209</v>
+        <v>125088</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>101875</v>
+        <v>102241</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>81454</v>
+        <v>80911</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>214068</v>
+        <v>211155</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>331366</v>
+        <v>331613</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>251854</v>
+        <v>252499</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>174128</v>
+        <v>174208</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>168663</v>
+        <v>168155</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>246367</v>
+        <v>247068</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>187887</v>
+        <v>186249</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>120214</v>
+        <v>122346</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>110082</v>
+        <v>109796</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>162675</v>
+        <v>164512</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>139483</v>
+        <v>137798</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>111115</v>
+        <v>111715</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>268305</v>
+        <v>267258</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>396605</v>
+        <v>397543</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>309481</v>
+        <v>310315</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>223573</v>
+        <v>222564</v>
       </c>
     </row>
     <row r="20">
